--- a/Control_Test_Data2_enhanced_analysis.xlsx
+++ b/Control_Test_Data2_enhanced_analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ee8d3d5c28cf10e6/Desktop/final_consolidated_analyzer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_A8E2911CDE76ABF46B574CE7C07AFC1A269A8E50" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34207582-2660-486D-A69D-5B41DD3D5FE9}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_D8ED8BBC325F618AD5B75A47CD0A147B399A91C0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9DDB26D-B67E-4E10-90AA-062B9DE002C4}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="29925" yWindow="1125" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Analysis Results" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="239">
   <si>
     <t>Control ID</t>
   </si>
@@ -151,7 +151,7 @@
     <t>WHO, WHY</t>
   </si>
   <si>
-    <t>when appropriate, appropriate</t>
+    <t>appropriate, when appropriate</t>
   </si>
   <si>
     <t>CTRL-006</t>
@@ -373,7 +373,7 @@
     <t>Multiple frequencies detected. Consider whether this is describing a process rather than a single control.; Replace vague timing term 'if needed' with specific conditions that trigger the control.</t>
   </si>
   <si>
-    <t>Control has an implied purpose but lacks an explicit WHY statement. Consider adding a clear statement like: 'to ensure accuracy and completeness'.</t>
+    <t>Control has an implied completeness purpose but lacks an explicit WHY statement. Consider adding: 'This control is designed to ensure accuracy and completeness'</t>
   </si>
   <si>
     <t>No performer detected</t>
@@ -382,6 +382,9 @@
     <t>Replace weak verb 'performed' with a stronger control verb like 'verify', 'examine', or 'evaluate'; Consider using active voice to clearly indicate who performs the control; Consider clarifying the object of 'perform' to be more specific.</t>
   </si>
   <si>
+    <t>Control has an implied completeness purpose but lacks an explicit WHY statement. Consider adding: 'to ensure accuracy and completeness'</t>
+  </si>
+  <si>
     <t>Warning: Vague performer detected - consider specifying exact role</t>
   </si>
   <si>
@@ -391,7 +394,7 @@
     <t>Replace weak verb 'looks' with a stronger control verb like 'examine', 'inspect', or 'review'; Consider clarifying the object of 'look' to be more specific.</t>
   </si>
   <si>
-    <t>No WHY element detected. Consider adding a clear statement of purpose or risk mitigation.</t>
+    <t>No WHY element detected. Add a clear statement of purpose using 'to ensure,' 'in order to,' or similar phrasing.</t>
   </si>
   <si>
     <t>Replace vague timing term 'when appropriate' with specific frequency (daily, weekly, monthly).</t>
@@ -418,6 +421,9 @@
     <t>Consider using active voice to clearly indicate who performs the control; Consider clarifying the object of 'review' to be more specific.</t>
   </si>
   <si>
+    <t>Control has an implied risk_mitigation purpose but lacks an explicit WHY statement. Consider adding: 'to reduce risk of error or fraud'</t>
+  </si>
+  <si>
     <t>No specific timing information detected. Add specific frequency (daily, weekly, monthly) or timing (within X days).; Align the frequency in the description with the declared frequency (real-time)</t>
   </si>
   <si>
@@ -427,7 +433,7 @@
     <t>This appears to describe a process rather than a specific control action; consider breaking into separate controls; Consider clarifying the object of 'validate' to be more specific.</t>
   </si>
   <si>
-    <t>Control has a WHY statement focused on compliance.</t>
+    <t>Control has a WHY statement focused on compliance. Consider specifying which regulations or policies this control supports.</t>
   </si>
   <si>
     <t>Potential Control</t>
@@ -1098,20 +1104,19 @@
   <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="A1:J12"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" customWidth="1"/>
-    <col min="2" max="2" width="99.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
     <col min="4" max="4" width="20.85546875" customWidth="1"/>
     <col min="5" max="5" width="24.140625" customWidth="1"/>
     <col min="6" max="6" width="34.140625" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="22" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" customWidth="1"/>
     <col min="11" max="11" width="23.140625" customWidth="1"/>
     <col min="12" max="12" width="20.85546875" customWidth="1"/>
     <col min="13" max="13" width="18.7109375" customWidth="1"/>
@@ -1729,8 +1734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E1:E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1989,9 +1994,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E1:E12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2073,7 +2076,7 @@
         <v>117</v>
       </c>
       <c r="E4" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F4" t="s">
         <v>19</v>
@@ -2084,16 +2087,16 @@
         <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F5" t="s">
         <v>113</v>
@@ -2107,13 +2110,13 @@
         <v>116</v>
       </c>
       <c r="C6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" t="s">
         <v>122</v>
-      </c>
-      <c r="D6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E6" t="s">
-        <v>121</v>
       </c>
       <c r="F6" t="s">
         <v>113</v>
@@ -2130,10 +2133,10 @@
         <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F7" t="s">
         <v>19</v>
@@ -2147,13 +2150,13 @@
         <v>116</v>
       </c>
       <c r="C8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F8" t="s">
         <v>19</v>
@@ -2167,13 +2170,13 @@
         <v>111</v>
       </c>
       <c r="C9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E9" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F9" t="s">
         <v>19</v>
@@ -2193,7 +2196,7 @@
         <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="F10" t="s">
         <v>19</v>
@@ -2207,16 +2210,16 @@
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D11" t="s">
         <v>19</v>
       </c>
       <c r="E11" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F11" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -2227,13 +2230,13 @@
         <v>111</v>
       </c>
       <c r="C12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D12" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E12" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F12" t="s">
         <v>113</v>
@@ -2263,24 +2266,24 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D2" t="s">
         <v>97</v>
@@ -2288,41 +2291,41 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B4" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D4" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B5" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C5" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D5" t="s">
         <v>103</v>
@@ -2330,16 +2333,16 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B6" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C6" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -2361,12 +2364,12 @@
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B3">
         <v>11</v>
@@ -2374,20 +2377,20 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -2395,7 +2398,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -2403,7 +2406,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -2411,7 +2414,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -2424,47 +2427,47 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B14" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B15" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B16" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B17" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B18" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -2472,23 +2475,23 @@
         <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>85</v>
+        <v>176</v>
       </c>
       <c r="B22" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>174</v>
+        <v>85</v>
       </c>
       <c r="B23" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -2496,28 +2499,28 @@
         <v>48</v>
       </c>
       <c r="B24" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B27" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B28" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -2525,23 +2528,23 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B31" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B32" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -2563,52 +2566,52 @@
   <sheetData>
     <row r="1" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
@@ -2616,42 +2619,42 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
@@ -2659,102 +2662,102 @@
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -2776,77 +2779,77 @@
   <sheetData>
     <row r="1" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>

--- a/Control_Test_Data2_enhanced_analysis.xlsx
+++ b/Control_Test_Data2_enhanced_analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ee8d3d5c28cf10e6/Desktop/final_consolidated_analyzer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_D8ED8BBC325F618AD5B75A47CD0A147B399A91C0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9DDB26D-B67E-4E10-90AA-062B9DE002C4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_4862D67C931BEAFBDD945047CD0A147B399A8E6B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Analysis Results" sheetId="1" r:id="rId1"/>
@@ -1104,7 +1104,7 @@
   <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1734,9 +1734,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1994,7 +1992,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2047,7 +2047,7 @@
         <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>111</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
         <v>114</v>
@@ -2167,7 +2167,7 @@
         <v>49</v>
       </c>
       <c r="B9" t="s">
-        <v>111</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
         <v>129</v>
@@ -2227,7 +2227,7 @@
         <v>61</v>
       </c>
       <c r="B12" t="s">
-        <v>111</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
         <v>129</v>
